--- a/src/main/resources/xlsx/pcs/wy-5-1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-5-1.xlsx
@@ -47,7 +47,7 @@
   </si>
   <si>
     <t>title
-推荐提名“一上”情况汇总表</t>
+推荐提名“stage”情况汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
